--- a/biology/Zoologie/Bathyerginae/Bathyerginae.xlsx
+++ b/biology/Zoologie/Bathyerginae/Bathyerginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bathyerginae sont une sous-famille de l'ordre des Rongeurs. Cette sous-famille qui rassemble une partie des rats-taupes a été décrite pour la première fois en 1841 par le zoologiste britannique George Robert Waterhouse (1810-1888).
 Synonyme : Georychinae Roberts, 1951
@@ -512,29 +524,31 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (11 déc. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (11 déc. 2012) :
 genre Bathyergus Illiger, 1811
 Bathyergus janetta
-Bathyergus suillus - Fouisseur du Cap[2]
+Bathyergus suillus - Fouisseur du Cap
 genre Cryptomys Gray, 1864
-Cryptomys amatus - Petit Rat-taupe solitaire[3]
+Cryptomys amatus - Petit Rat-taupe solitaire
 Cryptomys anselli
 Cryptomys bocagei
-Cryptomys damarensis - Rat-taupe de Damaraland ou Rat-taupe de Damara[2]
+Cryptomys damarensis - Rat-taupe de Damaraland ou Rat-taupe de Damara
 Cryptomys darlingi
 Cryptomys foxi
-Cryptomys hottentotus - Rat-taupe africain[2] ou  Rat-taupe hottentot[4]
+Cryptomys hottentotus - Rat-taupe africain ou  Rat-taupe hottentot
 Cryptomys kafuensis
-Cryptomys mechowi - Rat-taupe géant[5] ou Petit Rat-taupe solitaire[3]
-Cryptomys ochraceocinereus - Petit Rat-taupe social[3]
+Cryptomys mechowi - Rat-taupe géant ou Petit Rat-taupe solitaire
+Cryptomys ochraceocinereus - Petit Rat-taupe social
 Cryptomys zechi
 genre Georychus Illiger, 1811
-Georychus capensis - Rat-taupe du Cap[2]
+Georychus capensis - Rat-taupe du Cap
 genre Heliophobius Peters, 1846
-Heliophobius argenteocinereus - Rat-taupe[2]
-Selon ITIS      (11 déc. 2012)[6] :
+Heliophobius argenteocinereus - Rat-taupe
+Selon ITIS      (11 déc. 2012) :
 genre Bathyergus Illiger, 1811
 genre Cryptomys Gray, 1864
 genre Georychus Illiger, 1811
